--- a/docs/测试材料/前测/前测-list1.xlsx
+++ b/docs/测试材料/前测/前测-list1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20FF0D7F-152C-43B8-AF53-A32F40D70E49}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView minimized="1" xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1686,8 +1687,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1796,11 +1797,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1842,7 +1851,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1874,9 +1883,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1908,6 +1935,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2083,22 +2128,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="104" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5" customWidth="1"/>
+    <col min="1" max="1" width="29" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
     <col min="5" max="5" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2115,7 +2160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>153</v>
       </c>
@@ -2132,7 +2177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2149,7 +2194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>157</v>
       </c>
@@ -2166,7 +2211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>159</v>
       </c>
@@ -2183,7 +2228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
@@ -2200,7 +2245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>163</v>
       </c>
@@ -2217,7 +2262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>165</v>
       </c>
@@ -2234,7 +2279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -2251,7 +2296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>169</v>
       </c>
@@ -2268,7 +2313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -2285,7 +2330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>172</v>
       </c>
@@ -2302,7 +2347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>136</v>
       </c>
@@ -2319,7 +2364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>137</v>
       </c>
@@ -2336,7 +2381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>138</v>
       </c>
@@ -2353,7 +2398,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>139</v>
       </c>
@@ -2370,7 +2415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>140</v>
       </c>
@@ -2387,7 +2432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>141</v>
       </c>
@@ -2404,7 +2449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>142</v>
       </c>
@@ -2421,7 +2466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>143</v>
       </c>
@@ -2438,7 +2483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>144</v>
       </c>
@@ -2455,7 +2500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>145</v>
       </c>
@@ -2472,7 +2517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>146</v>
       </c>
@@ -2489,7 +2534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1">
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>147</v>
       </c>
@@ -2506,7 +2551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1">
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -2523,7 +2568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1">
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
@@ -2540,7 +2585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1">
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
@@ -2557,7 +2602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1">
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -2574,7 +2619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>190</v>
       </c>
@@ -2591,7 +2636,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>55</v>
       </c>
@@ -2608,7 +2653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1">
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>148</v>
       </c>
@@ -2625,7 +2670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1">
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>56</v>
       </c>
@@ -2642,7 +2687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>57</v>
       </c>
@@ -2659,7 +2704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>58</v>
       </c>
@@ -2676,7 +2721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>59</v>
       </c>
@@ -2693,7 +2738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>60</v>
       </c>
@@ -2710,7 +2755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>149</v>
       </c>
@@ -2727,7 +2772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1">
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>150</v>
       </c>
@@ -2744,7 +2789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1">
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>151</v>
       </c>
@@ -2761,7 +2806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1">
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>202</v>
       </c>
@@ -2778,7 +2823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>204</v>
       </c>
@@ -2795,7 +2840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>206</v>
       </c>
@@ -2812,7 +2857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1">
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>208</v>
       </c>
@@ -2829,7 +2874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1">
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>210</v>
       </c>
@@ -2846,7 +2891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1">
+    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>212</v>
       </c>
@@ -2863,7 +2908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1">
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>214</v>
       </c>
@@ -2880,7 +2925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1">
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>216</v>
       </c>
@@ -2897,7 +2942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1">
+    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>218</v>
       </c>
@@ -2914,7 +2959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="2" customFormat="1">
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>220</v>
       </c>
@@ -2931,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="2" customFormat="1">
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>222</v>
       </c>
@@ -2948,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="2" customFormat="1">
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>224</v>
       </c>
@@ -2965,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="2" customFormat="1">
+    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>226</v>
       </c>
@@ -2982,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="2" customFormat="1">
+    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>228</v>
       </c>
@@ -2999,7 +3044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="2" customFormat="1">
+    <row r="54" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>230</v>
       </c>
@@ -3016,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="2" customFormat="1">
+    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>232</v>
       </c>
@@ -3033,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="2" customFormat="1">
+    <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>234</v>
       </c>
@@ -3050,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="2" customFormat="1">
+    <row r="57" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>236</v>
       </c>
@@ -3067,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="2" customFormat="1">
+    <row r="58" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
         <v>239</v>
       </c>
@@ -3084,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="2" customFormat="1">
+    <row r="59" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
         <v>240</v>
       </c>
@@ -3101,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="2" customFormat="1">
+    <row r="60" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
         <v>242</v>
       </c>
@@ -3118,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="2" customFormat="1">
+    <row r="61" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
         <v>244</v>
       </c>
@@ -3135,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="2" customFormat="1">
+    <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
         <v>246</v>
       </c>
@@ -3152,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="2" customFormat="1">
+    <row r="63" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
         <v>248</v>
       </c>
@@ -3169,7 +3214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="2" customFormat="1">
+    <row r="64" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
         <v>101</v>
       </c>
@@ -3186,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="2" customFormat="1">
+    <row r="65" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
         <v>251</v>
       </c>
@@ -3203,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="2" customFormat="1">
+    <row r="66" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
         <v>253</v>
       </c>
@@ -3220,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="2" customFormat="1">
+    <row r="67" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
         <v>255</v>
       </c>
@@ -3237,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="2" customFormat="1">
+    <row r="68" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
         <v>257</v>
       </c>
@@ -3254,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="2" customFormat="1">
+    <row r="69" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
         <v>259</v>
       </c>
@@ -3271,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="2" customFormat="1">
+    <row r="70" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
         <v>261</v>
       </c>
@@ -3288,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="2" customFormat="1">
+    <row r="71" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
         <v>263</v>
       </c>
@@ -3305,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="2" customFormat="1">
+    <row r="72" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
         <v>265</v>
       </c>
@@ -3322,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="2" customFormat="1">
+    <row r="73" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
         <v>267</v>
       </c>
@@ -3339,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="2" customFormat="1">
+    <row r="74" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
         <v>269</v>
       </c>
@@ -3356,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="2" customFormat="1">
+    <row r="75" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6" t="s">
         <v>271</v>
       </c>
@@ -3373,7 +3418,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="2" customFormat="1">
+    <row r="76" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6" t="s">
         <v>273</v>
       </c>
@@ -3390,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="2" customFormat="1">
+    <row r="77" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6" t="s">
         <v>275</v>
       </c>
@@ -3407,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="2" customFormat="1">
+    <row r="78" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6" t="s">
         <v>277</v>
       </c>
@@ -3424,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="2" customFormat="1">
+    <row r="79" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6" t="s">
         <v>279</v>
       </c>
@@ -3441,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="2" customFormat="1">
+    <row r="80" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
         <v>281</v>
       </c>
@@ -3458,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="2" customFormat="1">
+    <row r="81" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6" t="s">
         <v>283</v>
       </c>
@@ -3475,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="2" customFormat="1">
+    <row r="82" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
         <v>285</v>
       </c>
@@ -3492,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="2" customFormat="1">
+    <row r="83" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6" t="s">
         <v>287</v>
       </c>
@@ -3509,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="2" customFormat="1">
+    <row r="84" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6" t="s">
         <v>289</v>
       </c>
@@ -3526,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="2" customFormat="1">
+    <row r="85" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6" t="s">
         <v>291</v>
       </c>
@@ -3543,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="2" customFormat="1">
+    <row r="86" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6" t="s">
         <v>293</v>
       </c>
@@ -3560,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="2" customFormat="1">
+    <row r="87" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6" t="s">
         <v>295</v>
       </c>
@@ -3577,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="2" customFormat="1">
+    <row r="88" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
         <v>297</v>
       </c>
@@ -3594,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="2" customFormat="1">
+    <row r="89" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
         <v>299</v>
       </c>
@@ -3611,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="2" customFormat="1">
+    <row r="90" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
         <v>301</v>
       </c>
@@ -3628,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="2" customFormat="1">
+    <row r="91" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6" t="s">
         <v>303</v>
       </c>
@@ -3645,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="2" customFormat="1">
+    <row r="92" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6" t="s">
         <v>305</v>
       </c>
@@ -3662,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="2" customFormat="1">
+    <row r="93" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>307</v>
       </c>
@@ -3679,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="2" customFormat="1">
+    <row r="94" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6" t="s">
         <v>309</v>
       </c>
@@ -3696,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="2" customFormat="1">
+    <row r="95" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
         <v>311</v>
       </c>
@@ -3713,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="2" customFormat="1">
+    <row r="96" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
         <v>313</v>
       </c>
@@ -3730,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="2" customFormat="1">
+    <row r="97" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
         <v>315</v>
       </c>
@@ -3747,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="2" customFormat="1">
+    <row r="98" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>317</v>
       </c>
@@ -3764,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="2" customFormat="1">
+    <row r="99" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>320</v>
       </c>
@@ -3781,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
         <v>319</v>
       </c>
@@ -3798,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
         <v>323</v>
       </c>
@@ -3815,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
         <v>325</v>
       </c>
@@ -3832,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
         <v>327</v>
       </c>
@@ -3849,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>329</v>
       </c>
@@ -3866,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
         <v>331</v>
       </c>
@@ -3883,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
         <v>333</v>
       </c>
@@ -3900,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
         <v>335</v>
       </c>
@@ -3917,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
         <v>337</v>
       </c>
@@ -3934,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
         <v>339</v>
       </c>
@@ -3951,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>341</v>
       </c>
@@ -3968,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
         <v>343</v>
       </c>
@@ -3985,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
         <v>347</v>
       </c>
@@ -4002,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
         <v>345</v>
       </c>
@@ -4019,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="3" t="s">
         <v>349</v>
       </c>
@@ -4036,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="3" t="s">
         <v>351</v>
       </c>
@@ -4053,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>353</v>
       </c>
@@ -4070,140 +4115,140 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -4218,12 +4263,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4232,12 +4277,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
